--- a/ref/sima.xlsx
+++ b/ref/sima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\react\cocvuong-react\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD07284-9668-446D-B192-FA7F77DB9B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6B1D-E454-4B33-9C93-9FF79DBA4CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4F94278-FA7D-4AA0-A972-791CFB088008}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4F94278-FA7D-4AA0-A972-791CFB088008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61582BD3-B414-4F3D-90D9-B4FBDC248EA5}">
   <dimension ref="A2:H322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1166,9 @@
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D116" s="5"/>
+      <c r="D116" s="5">
+        <v>4</v>
+      </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,9 +1190,15 @@
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
+      <c r="E119">
+        <v>8</v>
+      </c>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -1204,6 +1215,9 @@
       <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>5</v>
+      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -1219,6 +1233,9 @@
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>10</v>
+      </c>
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -1240,11 +1257,17 @@
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
+      <c r="D127">
+        <v>6</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>2</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -1261,6 +1284,9 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>9</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
     </row>
@@ -1273,6 +1299,9 @@
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>3</v>
+      </c>
       <c r="D132" s="2"/>
       <c r="F132" s="2"/>
     </row>
@@ -1287,6 +1316,9 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>7</v>
+      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="2"/>
     </row>
@@ -1321,10 +1353,16 @@
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
+      <c r="D141">
+        <v>5</v>
+      </c>
       <c r="E141" s="4"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>1</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -1339,6 +1377,9 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>9</v>
+      </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,6 +1392,9 @@
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>2</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -1367,6 +1411,9 @@
       <c r="G147" s="2"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>6</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -1382,6 +1429,9 @@
       <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>11</v>
+      </c>
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,11 +1453,17 @@
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
+      <c r="D153">
+        <v>7</v>
+      </c>
       <c r="E153" s="4"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>3</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -1424,6 +1480,9 @@
       <c r="G155" s="2"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>10</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="2"/>
     </row>
@@ -1436,6 +1495,9 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>4</v>
+      </c>
       <c r="D158" s="2"/>
       <c r="F158" s="2"/>
     </row>
@@ -1450,6 +1512,9 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>8</v>
+      </c>
       <c r="E160" s="3"/>
       <c r="F160" s="2"/>
     </row>
@@ -1484,10 +1549,16 @@
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
+      <c r="D167">
+        <v>6</v>
+      </c>
       <c r="E167" s="4"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>1</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -1502,6 +1573,9 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>10</v>
+      </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,6 +1588,9 @@
       <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>2</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -1530,6 +1607,9 @@
       <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>7</v>
+      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -1545,6 +1625,9 @@
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>12</v>
+      </c>
       <c r="G176" s="3"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -1556,6 +1639,9 @@
       <c r="G177" s="2"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>3</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="G178" s="2"/>
     </row>
@@ -1570,6 +1656,9 @@
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>8</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="G180" s="2"/>
     </row>
@@ -1584,6 +1673,9 @@
       <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>4</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -1600,6 +1692,9 @@
       <c r="G183" s="2"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>11</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="2"/>
     </row>
@@ -1612,6 +1707,9 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>5</v>
+      </c>
       <c r="D186" s="2"/>
       <c r="F186" s="2"/>
     </row>
@@ -1626,6 +1724,9 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>9</v>
+      </c>
       <c r="E188" s="3"/>
       <c r="F188" s="2"/>
     </row>
@@ -1660,10 +1761,16 @@
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
+      <c r="D195">
+        <v>7</v>
+      </c>
       <c r="E195" s="4"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>1</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -1678,6 +1785,9 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>11</v>
+      </c>
       <c r="F198" s="3"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,6 +1800,9 @@
       <c r="G199" s="2"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>2</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -1706,6 +1819,9 @@
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>8</v>
+      </c>
       <c r="E202" s="3"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -1720,6 +1836,9 @@
       <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>3</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="2"/>
       <c r="G204" s="2"/>
@@ -1734,6 +1853,9 @@
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>13</v>
+      </c>
       <c r="G206" s="3"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -1745,6 +1867,9 @@
       <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>4</v>
+      </c>
       <c r="D208" s="3"/>
       <c r="G208" s="2"/>
     </row>
@@ -1768,11 +1893,17 @@
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
+      <c r="D211">
+        <v>9</v>
+      </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>5</v>
+      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -1798,9 +1929,15 @@
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
+      <c r="E215">
+        <v>12</v>
+      </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>6</v>
+      </c>
       <c r="D216" s="2"/>
       <c r="F216" s="2"/>
     </row>
@@ -1815,6 +1952,9 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>10</v>
+      </c>
       <c r="E218" s="3"/>
       <c r="F218" s="2"/>
     </row>

--- a/ref/sima.xlsx
+++ b/ref/sima.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\react\cocvuong-react\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\cocvuong.com\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6B1D-E454-4B33-9C93-9FF79DBA4CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F6953-C64E-4214-BFF5-B196B4F40C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4F94278-FA7D-4AA0-A972-791CFB088008}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{B4F94278-FA7D-4AA0-A972-791CFB088008}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4-17" sheetId="1" r:id="rId1"/>
+    <sheet name="18 - 22" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>4 VĐV</t>
   </si>
@@ -78,6 +68,21 @@
   </si>
   <si>
     <t>17 VĐV</t>
+  </si>
+  <si>
+    <t>18 VĐV</t>
+  </si>
+  <si>
+    <t>19 VĐV</t>
+  </si>
+  <si>
+    <t>20 VĐV</t>
+  </si>
+  <si>
+    <t>21 VĐV</t>
+  </si>
+  <si>
+    <t>22 VĐV</t>
   </si>
 </sst>
 </file>
@@ -186,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -195,6 +200,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61582BD3-B414-4F3D-90D9-B4FBDC248EA5}">
   <dimension ref="A2:H322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="K206" sqref="K206"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="M306" sqref="M306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,9 +1174,7 @@
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D116" s="5">
-        <v>4</v>
-      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,15 +1196,9 @@
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="E119">
-        <v>8</v>
-      </c>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120">
-        <v>1</v>
-      </c>
       <c r="D120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -1215,9 +1215,6 @@
       <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D122">
-        <v>5</v>
-      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -1233,9 +1230,6 @@
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F124">
-        <v>10</v>
-      </c>
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,17 +1251,11 @@
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127">
-        <v>6</v>
-      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C128">
-        <v>2</v>
-      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -1284,9 +1272,6 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E130">
-        <v>9</v>
-      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
     </row>
@@ -1299,9 +1284,6 @@
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C132">
-        <v>3</v>
-      </c>
       <c r="D132" s="2"/>
       <c r="F132" s="2"/>
     </row>
@@ -1316,9 +1298,6 @@
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D134">
-        <v>7</v>
-      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="2"/>
     </row>
@@ -1353,16 +1332,10 @@
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141">
-        <v>5</v>
-      </c>
       <c r="E141" s="4"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142">
-        <v>1</v>
-      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -1377,9 +1350,6 @@
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E144">
-        <v>9</v>
-      </c>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,9 +1362,6 @@
       <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C146">
-        <v>2</v>
-      </c>
       <c r="D146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -1411,9 +1378,6 @@
       <c r="G147" s="2"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D148">
-        <v>6</v>
-      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -1429,9 +1393,6 @@
       <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F150">
-        <v>11</v>
-      </c>
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,17 +1414,11 @@
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153">
-        <v>7</v>
-      </c>
       <c r="E153" s="4"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C154">
-        <v>3</v>
-      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -1480,9 +1435,6 @@
       <c r="G155" s="2"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E156">
-        <v>10</v>
-      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="2"/>
     </row>
@@ -1495,9 +1447,6 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C158">
-        <v>4</v>
-      </c>
       <c r="D158" s="2"/>
       <c r="F158" s="2"/>
     </row>
@@ -1512,9 +1461,6 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D160">
-        <v>8</v>
-      </c>
       <c r="E160" s="3"/>
       <c r="F160" s="2"/>
     </row>
@@ -1549,16 +1495,10 @@
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167">
-        <v>6</v>
-      </c>
       <c r="E167" s="4"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C168">
-        <v>1</v>
-      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -1573,9 +1513,6 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E170">
-        <v>10</v>
-      </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,9 +1525,6 @@
       <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C172">
-        <v>2</v>
-      </c>
       <c r="D172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -1607,9 +1541,6 @@
       <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D174">
-        <v>7</v>
-      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -1625,9 +1556,6 @@
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F176">
-        <v>12</v>
-      </c>
       <c r="G176" s="3"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,9 +1567,6 @@
       <c r="G177" s="2"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C178">
-        <v>3</v>
-      </c>
       <c r="D178" s="3"/>
       <c r="G178" s="2"/>
     </row>
@@ -1656,9 +1581,6 @@
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D180">
-        <v>8</v>
-      </c>
       <c r="E180" s="3"/>
       <c r="G180" s="2"/>
     </row>
@@ -1673,9 +1595,6 @@
       <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C182">
-        <v>4</v>
-      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -1692,9 +1611,6 @@
       <c r="G183" s="2"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E184">
-        <v>11</v>
-      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="2"/>
     </row>
@@ -1707,9 +1623,6 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C186">
-        <v>5</v>
-      </c>
       <c r="D186" s="2"/>
       <c r="F186" s="2"/>
     </row>
@@ -1724,9 +1637,6 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D188">
-        <v>9</v>
-      </c>
       <c r="E188" s="3"/>
       <c r="F188" s="2"/>
     </row>
@@ -1761,16 +1671,10 @@
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195">
-        <v>7</v>
-      </c>
       <c r="E195" s="4"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C196">
-        <v>1</v>
-      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -1785,9 +1689,6 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E198">
-        <v>11</v>
-      </c>
       <c r="F198" s="3"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -1800,9 +1701,6 @@
       <c r="G199" s="2"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C200">
-        <v>2</v>
-      </c>
       <c r="D200" s="3"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -1819,9 +1717,6 @@
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D202">
-        <v>8</v>
-      </c>
       <c r="E202" s="3"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -1836,9 +1731,6 @@
       <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C204">
-        <v>3</v>
-      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="2"/>
       <c r="G204" s="2"/>
@@ -1853,9 +1745,6 @@
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F206">
-        <v>13</v>
-      </c>
       <c r="G206" s="3"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,9 +1756,6 @@
       <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C208">
-        <v>4</v>
-      </c>
       <c r="D208" s="3"/>
       <c r="G208" s="2"/>
     </row>
@@ -1893,17 +1779,11 @@
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211">
-        <v>9</v>
-      </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C212">
-        <v>5</v>
-      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -1929,15 +1809,9 @@
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-      <c r="E215">
-        <v>12</v>
-      </c>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C216">
-        <v>6</v>
-      </c>
       <c r="D216" s="2"/>
       <c r="F216" s="2"/>
     </row>
@@ -1952,9 +1826,6 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D218">
-        <v>10</v>
-      </c>
       <c r="E218" s="3"/>
       <c r="F218" s="2"/>
     </row>
@@ -1981,6 +1852,9 @@
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>8</v>
+      </c>
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,6 +1867,9 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>1</v>
+      </c>
       <c r="D226" s="3"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -2007,6 +1884,9 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>12</v>
+      </c>
       <c r="F228" s="3"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,6 +1899,9 @@
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>2</v>
+      </c>
       <c r="D230" s="3"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -2035,6 +1918,9 @@
       <c r="G231" s="2"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>9</v>
+      </c>
       <c r="E232" s="3"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -2049,6 +1935,9 @@
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>3</v>
+      </c>
       <c r="D234" s="3"/>
       <c r="E234" s="2"/>
       <c r="G234" s="2"/>
@@ -2063,6 +1952,9 @@
       <c r="G235" s="2"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>14</v>
+      </c>
       <c r="G236" s="3"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -2074,6 +1966,9 @@
       <c r="G237" s="2"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>4</v>
+      </c>
       <c r="D238" s="3"/>
       <c r="G238" s="2"/>
     </row>
@@ -2088,6 +1983,9 @@
       <c r="G239" s="2"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>10</v>
+      </c>
       <c r="E240" s="3"/>
       <c r="G240" s="2"/>
     </row>
@@ -2102,6 +2000,9 @@
       <c r="G241" s="2"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>5</v>
+      </c>
       <c r="D242" s="3"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -2118,6 +2019,9 @@
       <c r="G243" s="2"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>13</v>
+      </c>
       <c r="F244" s="3"/>
       <c r="G244" s="2"/>
     </row>
@@ -2130,6 +2034,9 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>6</v>
+      </c>
       <c r="D246" s="3"/>
       <c r="F246" s="2"/>
     </row>
@@ -2139,7 +2046,9 @@
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
-      <c r="D247" s="2"/>
+      <c r="D247" s="2">
+        <v>11</v>
+      </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
@@ -2156,6 +2065,9 @@
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>7</v>
+      </c>
       <c r="D250" s="3"/>
       <c r="E250" s="2"/>
     </row>
@@ -2180,6 +2092,9 @@
       <c r="C255" s="1"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>1</v>
+      </c>
       <c r="D256" s="3"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -2192,6 +2107,9 @@
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>9</v>
+      </c>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,6 +2122,9 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>2</v>
+      </c>
       <c r="D260" s="3"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -2218,6 +2139,9 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>13</v>
+      </c>
       <c r="F262" s="3"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,6 +2154,9 @@
       <c r="G263" s="2"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>3</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -2246,6 +2173,9 @@
       <c r="G265" s="2"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>10</v>
+      </c>
       <c r="E266" s="7"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -2260,6 +2190,9 @@
       <c r="G267" s="2"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>4</v>
+      </c>
       <c r="D268" s="3"/>
       <c r="E268" s="2"/>
       <c r="G268" s="2"/>
@@ -2274,6 +2207,9 @@
       <c r="G269" s="2"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>15</v>
+      </c>
       <c r="G270" s="3"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -2285,6 +2221,9 @@
       <c r="G271" s="2"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>5</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="G272" s="2"/>
     </row>
@@ -2299,6 +2238,9 @@
       <c r="G273" s="2"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>11</v>
+      </c>
       <c r="E274" s="3"/>
       <c r="G274" s="2"/>
     </row>
@@ -2313,6 +2255,9 @@
       <c r="G275" s="2"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>6</v>
+      </c>
       <c r="D276" s="3"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -2329,6 +2274,9 @@
       <c r="G277" s="2"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>14</v>
+      </c>
       <c r="F278" s="3"/>
       <c r="G278" s="2"/>
     </row>
@@ -2341,6 +2289,9 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>7</v>
+      </c>
       <c r="D280" s="3"/>
       <c r="F280" s="2"/>
     </row>
@@ -2355,6 +2306,9 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>12</v>
+      </c>
       <c r="E282" s="7"/>
       <c r="F282" s="2"/>
     </row>
@@ -2367,6 +2321,9 @@
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>8</v>
+      </c>
       <c r="D284" s="3"/>
       <c r="E284" s="2"/>
     </row>
@@ -2391,7 +2348,9 @@
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D291" s="5"/>
+      <c r="D291" s="5">
+        <v>2</v>
+      </c>
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -2405,6 +2364,9 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>10</v>
+      </c>
       <c r="F293" s="3"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -2417,7 +2379,9 @@
       <c r="G294" s="2"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D295" s="5"/>
+      <c r="D295" s="5">
+        <v>3</v>
+      </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -2433,6 +2397,9 @@
       <c r="G296" s="2"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>14</v>
+      </c>
       <c r="G297" s="3"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,7 +2412,9 @@
       <c r="H298" s="2"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D299" s="5"/>
+      <c r="D299" s="5">
+        <v>4</v>
+      </c>
       <c r="E299" s="2"/>
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
@@ -2463,6 +2432,9 @@
       <c r="H300" s="2"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>11</v>
+      </c>
       <c r="F301" s="3"/>
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
@@ -2477,7 +2449,9 @@
       <c r="H302" s="2"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D303" s="5"/>
+      <c r="D303" s="5">
+        <v>5</v>
+      </c>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="H303" s="2"/>
@@ -2493,6 +2467,9 @@
       <c r="H304" s="2"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <v>16</v>
+      </c>
       <c r="H305" s="3"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,10 +2491,16 @@
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
+      <c r="D308">
+        <v>6</v>
+      </c>
       <c r="E308" s="2"/>
       <c r="H308" s="2"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>1</v>
+      </c>
       <c r="D309" s="3"/>
       <c r="E309" s="4"/>
       <c r="F309" s="2"/>
@@ -2530,6 +2513,9 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="2"/>
+      <c r="E310">
+        <v>12</v>
+      </c>
       <c r="F310" s="2"/>
       <c r="H310" s="2"/>
     </row>
@@ -2549,7 +2535,9 @@
       <c r="H312" s="2"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D313" s="5"/>
+      <c r="D313" s="5">
+        <v>7</v>
+      </c>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -2567,6 +2555,9 @@
       <c r="H314" s="2"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>15</v>
+      </c>
       <c r="G315" s="3"/>
       <c r="H315" s="2"/>
     </row>
@@ -2579,7 +2570,9 @@
       <c r="G316" s="2"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D317" s="5"/>
+      <c r="D317" s="5">
+        <v>8</v>
+      </c>
       <c r="E317" s="2"/>
       <c r="G317" s="2"/>
     </row>
@@ -2595,6 +2588,9 @@
       <c r="G318" s="2"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>13</v>
+      </c>
       <c r="F319" s="3"/>
       <c r="G319" s="2"/>
     </row>
@@ -2607,7 +2603,9 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D321" s="5"/>
+      <c r="D321" s="5">
+        <v>9</v>
+      </c>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
@@ -2624,4 +2622,1738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107A5C34-5303-4631-B029-6BDE6657CC88}">
+  <dimension ref="A1:H208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="5">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="5">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="E56" s="4"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="5"/>
+      <c r="G57">
+        <v>18</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="5">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="5"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="5"/>
+      <c r="F67">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D75" s="5">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D81" s="5">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="5"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="E84">
+        <v>13</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" s="5"/>
+      <c r="F89">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="F96" s="2"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="5">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="E98" s="4"/>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D99" s="5"/>
+      <c r="G99">
+        <v>19</v>
+      </c>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D101" s="5">
+        <v>9</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="5"/>
+      <c r="F103" s="2"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="E104">
+        <v>15</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>14</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D109" s="5"/>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>17</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>16</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>19</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D117" s="5">
+        <v>12</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D123" s="5">
+        <v>6</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D125" s="5"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D131" s="5"/>
+      <c r="F131">
+        <v>18</v>
+      </c>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134">
+        <v>8</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>15</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>9</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="F138" s="2"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D139" s="5">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="E140" s="4"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D141" s="5"/>
+      <c r="G141">
+        <v>20</v>
+      </c>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>12</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="2"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>16</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>11</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>16</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D155" s="5">
+        <v>12</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D157" s="5"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>19</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="E158">
+        <v>17</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>20</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>21</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D167" s="5">
+        <v>7</v>
+      </c>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D169" s="5"/>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="E170">
+        <v>15</v>
+      </c>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>8</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="2"/>
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>19</v>
+      </c>
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>9</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>8</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>16</v>
+      </c>
+      <c r="F181" s="3"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="F182" s="2"/>
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="2"/>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>11</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="2"/>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>21</v>
+      </c>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>12</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>11</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="2"/>
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>14</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>17</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>15</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>16</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>12</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>18</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D201" s="5">
+        <v>13</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>19</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D203" s="5"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>20</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="E204">
+        <v>18</v>
+      </c>
+      <c r="F204" s="3"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>21</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207" s="3"/>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>22</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A165:B165"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>